--- a/data/financial_statements/sofp/ABT.xlsx
+++ b/data/financial_statements/sofp/ABT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,1274 +602,1274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
         <v>9907000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>9290000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8158000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10249000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9692000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8944000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8372000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7148000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4731000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5037000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3668000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4140000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4335000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3376000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3261000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4086000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7550000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3264000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4042000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>9610000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>11199000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>9835000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>8860000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>18775000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4507000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4438000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3957000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6125000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6139000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>11177000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>9849000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4460000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4877000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>7062000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>7047000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8098000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>8605484000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>9393592000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>8517313000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>6408000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7199000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7179000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6487000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6405000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6113000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6096000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6414000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5649000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5140000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5292000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5425000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5450000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>5548000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5345000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5182000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5271000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>5192000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5356000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5249000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>4800000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4633000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4510000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3248000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>3320000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>3567000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>3430000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>3418000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>3460000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>3553000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>3481000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>3586000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>3618000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4056000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3883000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>3986000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>3882803000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>3938998000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>3917865000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>5734000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5899000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5691000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5157000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5261000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5439000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5387000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5012000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5152000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5202000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4568000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4316000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4392000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4352000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4085000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3796000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3781000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3714000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3826000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3601000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3483000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3603000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3995000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2434000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2613000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2813000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2786000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2599000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2633000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2735000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2623000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2643000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2696000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2823000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2775000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2693000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2804070000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2725179000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2710250000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>2796000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2568000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2401000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2346000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2134000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2131000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1962000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1867000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1858000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1842000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1970000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1786000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>12000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>17000000</v>
-      </c>
-      <c r="T5">
-        <v>20000000</v>
       </c>
       <c r="U5">
         <v>20000000</v>
       </c>
-      <c r="Y5">
+      <c r="V5">
+        <v>20000000</v>
+      </c>
+      <c r="Z5">
         <v>513000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>552000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>66000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>76000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>105000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>139000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>93000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>173000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>892000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1100000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>252000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>249000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>438000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>538976000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>533183000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>537235000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>24845000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24956000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>23429000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>24239000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>23492000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>22627000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>21817000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20441000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17390000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>17221000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15498000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15667000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16119000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>15195000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14409000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>14632000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>18196000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>14122000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>14964000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>20147000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>21377000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>19983000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>19329000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>26776000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>12978000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>12988000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>12406000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>14155000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>15894000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>21131000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>19985000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>13556000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>16464000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>18258000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>17931000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>19247000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>19748950000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>19831120000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>19096870000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>8689000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8818000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8908000000</v>
       </c>
-      <c r="E7">
-        <v>10112000000</v>
-      </c>
       <c r="F7">
+        <v>8959000000</v>
+      </c>
+      <c r="G7">
         <v>8831000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8816000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8832000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9029000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8620000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8343000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>7907000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8038000000</v>
-      </c>
-      <c r="N7">
-        <v>7825000000</v>
       </c>
       <c r="O7">
         <v>7825000000</v>
       </c>
       <c r="P7">
+        <v>7825000000</v>
+      </c>
+      <c r="Q7">
         <v>7626000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7563000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7448000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7432000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7659000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>7607000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7219000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>7286000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>7265000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5705000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>5734000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5826000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>5836000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>5730000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>5797000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5738000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>5699000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>5935000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5872000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>5935000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5948000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5905000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>5842369000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>5768649000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>5791492000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>764000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>734000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>763000000</v>
       </c>
-      <c r="E8">
-        <v>903000000</v>
-      </c>
       <c r="F8">
-        <v>941000000</v>
+        <v>816000000</v>
       </c>
       <c r="G8">
+        <v>812000000</v>
+      </c>
+      <c r="H8">
         <v>805000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>832000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>821000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>803000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>776000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>790000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>883000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>874000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>851000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>867000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>897000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>971000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>940000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>913000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>883000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1386000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1545000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1756000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2947000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2997000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>3339000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3552000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>4041000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>3055000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>243000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>244000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>229000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>221000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>130000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>122000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>119000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>142527000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>154268000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>146076000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>33134000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>34336000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>35404000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>35970000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>36611000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>37166000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>37565000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>38528000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>38546000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>38865000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>39192000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>40220000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>40511000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>41420000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>41681000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>42196000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>42893000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>43795000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>45170000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>45493000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>40644000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>40785000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>40758000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>12222000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>12486000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>15063000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>15233000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>15200000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>15594000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>15681000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>15834000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>16265000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>16142000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>15179000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>15394000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>15507000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>15651000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>15000330000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>15482260000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>5369000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5358000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5503000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5212000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4049000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3855000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3739000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3729000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3684000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3571000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3390000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3079000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3210000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3136000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3027000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1885000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2110000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2005000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2082000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1944000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1565000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1552000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1779000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2263000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2523000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2613000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2608000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>2119000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1383000000</v>
-      </c>
-      <c r="AE10">
-        <v>1330000000</v>
       </c>
       <c r="AF10">
         <v>1330000000</v>
       </c>
       <c r="AG10">
+        <v>1330000000</v>
+      </c>
+      <c r="AH10">
         <v>3288000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1772000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1921000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2214000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2109000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2670728000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2077860000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2097969000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>5369000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>5358000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5503000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3972000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3920000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3712000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3739000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2418000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3684000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3571000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3390000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2097000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>19000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>121000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>120000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>176000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>57000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2753000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>2779000000</v>
-      </c>
-      <c r="AA11">
-        <v>2000000</v>
       </c>
       <c r="AB11">
         <v>2000000</v>
@@ -1770,822 +1884,825 @@
         <v>2000000</v>
       </c>
       <c r="AF11">
+        <v>2000000</v>
+      </c>
+      <c r="AG11">
         <v>3000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1934000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2043000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>52000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>53000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>66000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>76903000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>71114000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>71950000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>47956000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>49246000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>50578000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>50957000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>50303000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>50642000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>50968000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>52107000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>51653000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>51555000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>51279000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>52220000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>52420000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>53232000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>53201000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>52541000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>53441000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>54293000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>55944000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>56103000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>50871000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>51168000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>51558000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>25890000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>26519000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>26843000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>27231000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>27092000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>25831000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>22994000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>23110000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>27651000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>26050000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>23217000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>23731000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>23706000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>24383530000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>23072220000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>23589740000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>72801000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>74202000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>74007000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>75196000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>73795000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>73269000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>72785000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>72548000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>69043000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>68776000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>66777000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>67887000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>68539000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>68427000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>67610000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>67173000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>71637000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>68415000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>70908000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>76250000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>72248000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>71151000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>70887000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>52666000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>39497000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>39831000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>39637000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>41247000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>41725000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>44125000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>43095000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>41207000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>42514000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>41475000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>41662000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>42953000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>44132480000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>42903350000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>42686610000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
         <v>197000000</v>
-      </c>
-      <c r="G14">
-        <v>199000000</v>
       </c>
       <c r="H14">
         <v>199000000</v>
       </c>
       <c r="I14">
+        <v>199000000</v>
+      </c>
+      <c r="J14">
         <v>213000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>208000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>205000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>204000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>201000000</v>
-      </c>
-      <c r="N14">
-        <v>204000000</v>
       </c>
       <c r="O14">
         <v>204000000</v>
       </c>
       <c r="P14">
+        <v>204000000</v>
+      </c>
+      <c r="Q14">
         <v>201000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>200000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>211000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>341000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>230000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>206000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>211000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>218000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>207000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1322000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2531000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2892000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>2610000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3127000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2370000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2867000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2921000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>4382000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>4376000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3953000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>4370000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3164000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>4595867000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4259614000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3358255000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>4133000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4493000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4757000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4408000000</v>
-      </c>
-      <c r="F15">
-        <v>4017000000</v>
       </c>
       <c r="G15">
         <v>4017000000</v>
       </c>
       <c r="H15">
+        <v>4017000000</v>
+      </c>
+      <c r="I15">
         <v>4066000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3946000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3189000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3335000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3181000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3252000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3029000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3222000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3045000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2975000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2730000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2503000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2476000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2402000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1858000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1667000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1481000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1178000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1051000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1153000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1053000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1081000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1007000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1000000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1012000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1064000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>965000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1062000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1074000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1026000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1008912000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1042248000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1087979000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>820000000</v>
-      </c>
-      <c r="C16">
-        <v>824000000</v>
       </c>
       <c r="D16">
         <v>824000000</v>
       </c>
       <c r="E16">
+        <v>824000000</v>
+      </c>
+      <c r="F16">
         <v>831000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>797000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>799000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>801000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>798000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>639000000</v>
-      </c>
-      <c r="K16">
-        <v>637000000</v>
       </c>
       <c r="L16">
         <v>637000000</v>
       </c>
       <c r="M16">
+        <v>637000000</v>
+      </c>
+      <c r="N16">
         <v>635000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>567000000</v>
-      </c>
-      <c r="O16">
-        <v>566000000</v>
       </c>
       <c r="P16">
         <v>566000000</v>
       </c>
       <c r="Q16">
+        <v>566000000</v>
+      </c>
+      <c r="R16">
         <v>563000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>493000000</v>
-      </c>
-      <c r="S16">
-        <v>492000000</v>
       </c>
       <c r="T16">
         <v>492000000</v>
       </c>
       <c r="U16">
+        <v>492000000</v>
+      </c>
+      <c r="V16">
         <v>489000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>462000000</v>
-      </c>
-      <c r="W16">
-        <v>461000000</v>
       </c>
       <c r="X16">
         <v>461000000</v>
       </c>
       <c r="Y16">
+        <v>461000000</v>
+      </c>
+      <c r="Z16">
         <v>391000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>384000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>383000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>382000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>383000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>359000000</v>
-      </c>
-      <c r="AE16">
-        <v>358000000</v>
       </c>
       <c r="AF16">
         <v>358000000</v>
       </c>
       <c r="AG16">
+        <v>358000000</v>
+      </c>
+      <c r="AH16">
         <v>362000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>332000000</v>
-      </c>
-      <c r="AI16">
-        <v>331000000</v>
       </c>
       <c r="AJ16">
         <v>331000000</v>
       </c>
       <c r="AK16">
+        <v>331000000</v>
+      </c>
+      <c r="AL16">
         <v>341000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>216937000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>218048000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>218867000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1426000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1315000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1147000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1625000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1470000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1248000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1117000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1416000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1439000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1121000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>949000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1237000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1258000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1018000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>886000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1182000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1241000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1034000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>949000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1187000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1103000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>905000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>802000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>752000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>799000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>717000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>606000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>746000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>854000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>759000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>649000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>776000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>867000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>828000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>681000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>906000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>888793000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>800814000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>733158000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>1117000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4000000</v>
       </c>
-      <c r="E18">
-        <v>999000000</v>
-      </c>
       <c r="F18">
-        <v>951000000</v>
+        <v>754000000</v>
       </c>
       <c r="G18">
+        <v>754000000</v>
+      </c>
+      <c r="H18">
         <v>755000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>756000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1290000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1264000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1277000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1254000000</v>
-      </c>
-      <c r="O18">
-        <v>8000000</v>
       </c>
       <c r="P18">
         <v>8000000</v>
       </c>
       <c r="Q18">
+        <v>8000000</v>
+      </c>
+      <c r="R18">
         <v>7000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4063000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>506000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>507000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>508000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>504000000</v>
-      </c>
-      <c r="W18">
-        <v>3000000</v>
       </c>
       <c r="X18">
         <v>3000000</v>
@@ -2594,2174 +2711,2177 @@
         <v>3000000</v>
       </c>
       <c r="Z18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="AA18">
         <v>4000000</v>
       </c>
       <c r="AB18">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="AC18">
         <v>3000000</v>
       </c>
       <c r="AD18">
-        <v>32000000</v>
+        <v>3000000</v>
       </c>
       <c r="AE18">
         <v>32000000</v>
       </c>
       <c r="AF18">
+        <v>32000000</v>
+      </c>
+      <c r="AG18">
         <v>51000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>55000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>206000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>9000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>8000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>9000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>264008800</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>264164100</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>277595000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>394000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>355000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>338000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>306000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>368000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>242000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>276000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>362000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>117000000</v>
-      </c>
-      <c r="K19">
-        <v>165000000</v>
       </c>
       <c r="L19">
         <v>165000000</v>
       </c>
       <c r="M19">
+        <v>165000000</v>
+      </c>
+      <c r="N19">
         <v>226000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>67000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>83000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>277000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>305000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>231000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>188000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>212000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>309000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>180000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>192000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>186000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>188000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>240000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>232000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>261000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>430000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>483000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>589000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>534000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>270000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>481000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>181000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>152000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>175000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>228175000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>138772000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>141978000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>7721000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7539000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7548000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7392000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7531000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7401000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7165000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7138000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6737000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5964000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5994000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5702000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>245000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>597000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>361000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>360000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>373000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>356000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>292000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>301000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>680000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>721000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>242000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>169000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>386000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>348500000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>302385000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>269539000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>13365000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>12392000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>12647000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>13105000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>12867000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>12614000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12462000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>11907000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10257000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10959000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>10808000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10863000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>10491000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>9062000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>9113000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>9012000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>12776000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>8951000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>9010000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>8912000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>7935000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>6803000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>6646000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>6660000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>8321000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>8673000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>8393000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>9186000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>8755000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>9185000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>9206000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>10467000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>10823000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>9853000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>10186000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>9507000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>11331670000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>10919610000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>10406330000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>15297000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>16755000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>17086000000</v>
       </c>
-      <c r="E22">
-        <v>18252000000</v>
-      </c>
       <c r="F22">
+        <v>17296000000</v>
+      </c>
+      <c r="G22">
         <v>17446000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>17547000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>17489000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>18527000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>18349000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>18184000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>16804000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>16661000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>17639000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>18982000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>18845000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>19359000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>19284000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>19823000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>21154000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>27210000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>23310000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>23810000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>23764000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>20681000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>5975000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>6016000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>5977000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>5871000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>5953000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>5862000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>5931000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3393000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3719000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3403000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3387000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3388000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3403069000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3410759000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3466576000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>8255000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>8339000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8645000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8771000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8844000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9079000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9046000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>9111000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>8842000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>8835000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>8738000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>9062000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>8390000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>8489000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>8523000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8080000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8679000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8867000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>9143000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>9030000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>8785000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>8750000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>8930000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>4549000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>4245000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>4347000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>4425000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>4864000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5798000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5952000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>5970000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>5600000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>4883000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>4514000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4599000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>4784000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>5603607000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>6139332000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>6125111000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24">
         <v>2072000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2146000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2126000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>8255000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>8339000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8645000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5743000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8844000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9079000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9046000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6063000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>8842000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>8835000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>8738000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6181000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>59000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>60000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>108000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>96000000</v>
-      </c>
-      <c r="AI25">
-        <v>1000000</v>
       </c>
       <c r="AJ25">
         <v>1000000</v>
       </c>
       <c r="AK25">
+        <v>1000000</v>
+      </c>
+      <c r="AL25">
         <v>7000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>6205000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>5995000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>5325000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>23552000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>25094000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>25731000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>26067000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>26290000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>26626000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>26535000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>27638000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>27191000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>27019000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>25542000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>25723000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>26029000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>27471000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>27368000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>27439000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>27963000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>28690000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>30297000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>36240000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>32095000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>32560000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>32694000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>25289000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>10280000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>10363000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>10402000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>10735000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>11751000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>11814000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>11901000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>9101000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>8698000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>7918000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>7987000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>8179000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>9012881000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>9556086000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>9597012000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>36917000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>37486000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>38378000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>39172000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>39157000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>39240000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>38997000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>39545000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>37448000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>37978000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>36350000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>36586000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>36520000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>36533000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>36481000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>36451000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>40739000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>37641000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>39307000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>45152000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>40030000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>39363000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>39340000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>31949000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>18601000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>19036000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>18795000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>19921000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>20506000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>20999000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>21107000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>19568000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>19521000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>17771000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>18173000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>17686000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>20344550000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>20475700000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>20003340000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>24560000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>24429000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>24304000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>24470000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>24285000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>24153000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>24023000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>24145000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>24037000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>23893000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>23731000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>23853000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>23771000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>23665000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>23461000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>23512000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>23428000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>23317000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>23223000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>23206000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>23118000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>23012000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>22886000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>13027000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>12939000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>12835000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>12744000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>12734000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>12641000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>12566000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>12462000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>12383000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>12207000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>12126000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>12032000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>12048000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>11793440000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>11730950000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>11615370000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>35115000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>34487000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>33295000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>31528000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>30376000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>29053000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>28669000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>27627000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>26266000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>25669000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>25786000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>25847000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>25440000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>25045000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>24613000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>24560000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>24144000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>24080000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>23856000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>23978000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>25320000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>25202000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>25387000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>25565000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>25162000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>25884000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>25654000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>25757000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>25375000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>25162000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>24740000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>22874000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>22335000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>22137000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>22005000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>21979000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>21668080000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>20318890000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>20062480000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>14555000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>13720000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>13726000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>11822000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>10999000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>10340000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>9845000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>10042000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>9873000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9904000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>9913000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>10147000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>9631000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>9659000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>9679000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>9962000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>9858000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>9907000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>9947000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>10225000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>10290000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>10362000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>10379000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>10791000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>10792000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>10821000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>10825000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>10622000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>9694000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>9716000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>9721000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>8678000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>8679000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>8709000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>8713000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>6844000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>6808771000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>6487355000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>6194998000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>35675000000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>36490000000</v>
+        <v>35884000000</v>
       </c>
       <c r="D31">
-        <v>35399000000</v>
+        <v>36716000000</v>
       </c>
       <c r="E31">
-        <v>35802000000</v>
+        <v>35629000000</v>
       </c>
       <c r="F31">
-        <v>34422000000</v>
+        <v>36024000000</v>
       </c>
       <c r="G31">
+        <v>34638000000</v>
+      </c>
+      <c r="H31">
         <v>34029000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>33788000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>33003000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>31595000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>30798000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>30427000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>31301000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>32019000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>31894000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>31129000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>30722000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>30898000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>30774000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>31601000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>31098000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>32218000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>31788000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>31547000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>20717000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>20896000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>20795000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>20842000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>21326000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>21219000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>23126000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>21988000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>21639000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>22993000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>23704000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>23489000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>25267000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>23787930000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>22427640000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>22683270000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>35675000000</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>36490000000</v>
+        <v>35884000000</v>
       </c>
       <c r="D32">
-        <v>35399000000</v>
+        <v>36716000000</v>
       </c>
       <c r="E32">
-        <v>35802000000</v>
+        <v>35629000000</v>
       </c>
       <c r="F32">
-        <v>34422000000</v>
+        <v>36024000000</v>
       </c>
       <c r="G32">
+        <v>34638000000</v>
+      </c>
+      <c r="H32">
         <v>34029000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>33788000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>33003000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>31595000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>30798000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>30427000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>31301000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>32019000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>31894000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>31129000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>30722000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>30898000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>30774000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>31601000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>31098000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>32218000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>31788000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>31547000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>20717000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>20896000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>20795000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>20842000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>21326000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>21219000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>23126000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>21988000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>21639000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>22993000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>23704000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>23489000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>25267000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>23787930000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>22427650000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>22683280000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>72801000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>74202000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>74007000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>75196000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>73795000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>73269000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>72785000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>72548000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>69043000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>68776000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>66777000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>67887000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>68539000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>68427000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>67610000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>67173000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>71637000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>68415000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>70908000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>76250000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>72248000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>71151000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>70887000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>52666000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>39497000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>39831000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>39637000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>41247000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>41725000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>44125000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>43095000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>41207000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>42514000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>41475000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>41662000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>42953000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>44132480000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>42903350000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>42686610000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>1743574000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1751220000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1750942000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1764082000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1768287000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1772817000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1776820000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1771230000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1772362000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1770530000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1768845000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1762503000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1768456000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1767398000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1764181000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1755619000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1756333000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1754319000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1753188000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1743602000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1740601000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>1737443000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>1735272000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1472869000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>1472310000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1469995000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>1469152000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1472665000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1491720000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>1490441000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>1488757000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>1508035000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1505791000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>1503699000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>1501939000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>1548098000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1546186000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>1554125000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1558865000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>2750000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2380000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>225000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>54000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-1973000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-3137000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-3777000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-5525000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-6951000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-8067000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-8765000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-8919000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-8492000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-9526000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>-10552000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-11474000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>-11995000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>-13021000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>-13569000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-14395000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-8426000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-8997000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>-9211000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>8495000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>8410000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>5732000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>5609000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>6126000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>5625000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>7445000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>6154000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>5374000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>6851000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>8525000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>8095000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>9760000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>8136929000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>7427317000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>7201018000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>6507000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>7470000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>8932000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>9002000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8705000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>9358000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>9873000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>11386000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>13624000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>14437000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>14400000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>13798000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>14558000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>15614000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>15592000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>15280000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>15797000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>17065000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>17619000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>18108000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>12615000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>13978000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>14907000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1909000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1472000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>1582000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>2023000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>-251000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-154000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-5283000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-3867000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>-1012000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>-952000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>-3650000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>-3652000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>-4701000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>-4938406200</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>-5718668900</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>-4773142000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>16414000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>16760000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>17090000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>19251000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>18397000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>18302000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>18245000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>18534000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>18355000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>19474000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>18068000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>17938000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>18893000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>18990000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>18853000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>19366000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>23347000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>20329000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>21661000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>27718000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>23814000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>23813000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>23767000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>20684000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>5979000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>6020000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>5980000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>5874000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>5985000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>5894000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>5982000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>3448000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>3925000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>3412000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>3395000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>3397000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>3667077800</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>3674923100</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>3744171000</v>
       </c>
     </row>
